--- a/output/cluster.json/dbmanager.result.xlsx
+++ b/output/cluster.json/dbmanager.result.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M36"/>
+  <dimension ref="A1:M34"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -523,12 +523,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -538,14 +538,14 @@
         <v>10</v>
       </c>
       <c r="F2" t="n">
-        <v>162</v>
+        <v>419</v>
       </c>
       <c r="G2" t="n">
-        <v>21.06631989596879</v>
+        <v>88.39662447257383</v>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 11:00:00.000000', 'end': '2024-12-02 12:00:00.000000'}</t>
+          <t>etcdregistry.go:367</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
@@ -577,12 +577,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D3" t="n">
@@ -592,14 +592,14 @@
         <v>10</v>
       </c>
       <c r="F3" t="n">
-        <v>162</v>
+        <v>34</v>
       </c>
       <c r="G3" t="n">
-        <v>21.06631989596879</v>
+        <v>7.172995780590717</v>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 12:00:00.000000', 'end': '2024-12-02 13:00:00.000000'}</t>
+          <t>CmdDBUpdateDoc.go:145</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -631,12 +631,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -646,14 +646,14 @@
         <v>10</v>
       </c>
       <c r="F4" t="n">
-        <v>162</v>
+        <v>2</v>
       </c>
       <c r="G4" t="n">
-        <v>21.06631989596879</v>
+        <v>0.4219409282700421</v>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 13:00:00.000000', 'end': '2024-12-02 14:00:00.000000'}</t>
+          <t>DBScheduler.go:110</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
@@ -685,12 +685,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D5" t="n">
@@ -700,14 +700,14 @@
         <v>10</v>
       </c>
       <c r="F5" t="n">
-        <v>162</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>21.06631989596879</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 14:00:00.000000', 'end': '2024-12-02 15:00:00.000000'}</t>
+          <t>main.go:75</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
@@ -739,12 +739,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D6" t="n">
@@ -754,14 +754,14 @@
         <v>10</v>
       </c>
       <c r="F6" t="n">
-        <v>77</v>
+        <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>10.01300390117035</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 15:00:00.000000', 'end': '2024-12-02 16:00:00.000000'}</t>
+          <t>main.go:81</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
@@ -793,12 +793,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D7" t="n">
@@ -808,14 +808,14 @@
         <v>10</v>
       </c>
       <c r="F7" t="n">
-        <v>43</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>5.591677503250976</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>{'start': '2024-12-02 10:00:00.000000', 'end': '2024-12-02 11:00:00.000000'}</t>
+          <t>main.go:89</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
@@ -847,12 +847,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>TIMESTAMP</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>TIME-3600</t>
+          <t>EQUAL</t>
         </is>
       </c>
       <c r="D8" t="n">
@@ -865,11 +865,11 @@
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1300390117035111</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>{'start': '1970-01-01 00:00:00.000000', 'end': '1970-01-01 01:00:00.000000'}</t>
+          <t>main.go:96</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
@@ -901,7 +901,7 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
@@ -910,20 +910,20 @@
         </is>
       </c>
       <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="n">
+        <v>10</v>
+      </c>
+      <c r="F9" t="n">
         <v>1</v>
       </c>
-      <c r="E9" t="n">
-        <v>5</v>
-      </c>
-      <c r="F9" t="n">
-        <v>749</v>
-      </c>
       <c r="G9" t="n">
-        <v>97.39921976592979</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>debug</t>
+          <t>DBScheduler.go:148</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
@@ -955,7 +955,7 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
@@ -964,20 +964,20 @@
         </is>
       </c>
       <c r="D10" t="n">
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E10" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F10" t="n">
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>2.47074122236671</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>info</t>
+          <t>DBScheduler.go:154</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
@@ -1009,7 +1009,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>LEVEL</t>
+          <t>CALLER</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
@@ -1018,20 +1018,20 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="E11" t="n">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="F11" t="n">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.1300390117035111</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>null</t>
+          <t>DBScheduler.go:224</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
@@ -1078,10 +1078,10 @@
         <v>10</v>
       </c>
       <c r="F12" t="n">
-        <v>695</v>
+        <v>421</v>
       </c>
       <c r="G12" t="n">
-        <v>90.37711313394018</v>
+        <v>88.81856540084388</v>
       </c>
       <c r="H12" t="inlineStr">
         <is>
@@ -1132,10 +1132,10 @@
         <v>10</v>
       </c>
       <c r="F13" t="n">
-        <v>69</v>
+        <v>48</v>
       </c>
       <c r="G13" t="n">
-        <v>8.972691807542263</v>
+        <v>10.12658227848101</v>
       </c>
       <c r="H13" t="inlineStr">
         <is>
@@ -1189,7 +1189,7 @@
         <v>2</v>
       </c>
       <c r="G14" t="n">
-        <v>0.2600780234070221</v>
+        <v>0.4219409282700421</v>
       </c>
       <c r="H14" t="inlineStr">
         <is>
@@ -1243,7 +1243,7 @@
         <v>2</v>
       </c>
       <c r="G15" t="n">
-        <v>0.2600780234070221</v>
+        <v>0.4219409282700421</v>
       </c>
       <c r="H15" t="inlineStr">
         <is>
@@ -1297,7 +1297,7 @@
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.1300390117035111</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H16" t="inlineStr">
         <is>
@@ -1333,7 +1333,7 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
@@ -1345,17 +1345,17 @@
         <v>1</v>
       </c>
       <c r="E17" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F17" t="n">
-        <v>693</v>
+        <v>454</v>
       </c>
       <c r="G17" t="n">
-        <v>90.11703511053317</v>
+        <v>95.78059071729957</v>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>etcdregistry.go:367</t>
+          <t>debug</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
@@ -1387,7 +1387,7 @@
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
@@ -1399,17 +1399,17 @@
         <v>2</v>
       </c>
       <c r="E18" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F18" t="n">
-        <v>55</v>
+        <v>19</v>
       </c>
       <c r="G18" t="n">
-        <v>7.152145643693109</v>
+        <v>4.008438818565401</v>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>CmdDBUpdateDoc.go:145</t>
+          <t>info</t>
         </is>
       </c>
       <c r="I18" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>LEVEL</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
@@ -1453,17 +1453,17 @@
         <v>3</v>
       </c>
       <c r="E19" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="F19" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.2600780234070221</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>DBScheduler.go:110</t>
+          <t>null</t>
         </is>
       </c>
       <c r="I19" t="inlineStr">
@@ -1495,29 +1495,29 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D20" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E20" t="n">
         <v>10</v>
       </c>
       <c r="F20" t="n">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1300390117035111</v>
+        <v>34.17721518987342</v>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>main.go:75</t>
+          <t>{'start': '2024-12-07 13:00:00.000000', 'end': '2024-12-07 14:00:00.000000'}</t>
         </is>
       </c>
       <c r="I20" t="inlineStr">
@@ -1549,29 +1549,29 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="E21" t="n">
         <v>10</v>
       </c>
       <c r="F21" t="n">
-        <v>1</v>
+        <v>162</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1300390117035111</v>
+        <v>34.17721518987342</v>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>main.go:81</t>
+          <t>{'start': '2024-12-07 14:00:00.000000', 'end': '2024-12-07 15:00:00.000000'}</t>
         </is>
       </c>
       <c r="I21" t="inlineStr">
@@ -1603,29 +1603,29 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D22" t="n">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="E22" t="n">
         <v>10</v>
       </c>
       <c r="F22" t="n">
-        <v>1</v>
+        <v>141</v>
       </c>
       <c r="G22" t="n">
-        <v>0.1300390117035111</v>
+        <v>29.74683544303797</v>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>main.go:89</t>
+          <t>{'start': '2024-12-07 12:00:00.000000', 'end': '2024-12-07 13:00:00.000000'}</t>
         </is>
       </c>
       <c r="I22" t="inlineStr">
@@ -1657,29 +1657,29 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D23" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="E23" t="n">
         <v>10</v>
       </c>
       <c r="F23" t="n">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="G23" t="n">
-        <v>0.1300390117035111</v>
+        <v>1.687763713080169</v>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>main.go:96</t>
+          <t>{'start': '2024-12-07 15:00:00.000000', 'end': '2024-12-07 16:00:00.000000'}</t>
         </is>
       </c>
       <c r="I23" t="inlineStr">
@@ -1711,16 +1711,16 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>TIMESTAMP</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>TIME-3600</t>
         </is>
       </c>
       <c r="D24" t="n">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="E24" t="n">
         <v>10</v>
@@ -1729,11 +1729,11 @@
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.1300390117035111</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>DBScheduler.go:148</t>
+          <t>{'start': '1970-01-01 00:00:00.000000', 'end': '1970-01-01 01:00:00.000000'}</t>
         </is>
       </c>
       <c r="I24" t="inlineStr">
@@ -1765,29 +1765,29 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>K_MEANS-30</t>
         </is>
       </c>
       <c r="D25" t="n">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="E25" t="n">
         <v>10</v>
       </c>
       <c r="F25" t="n">
-        <v>1</v>
+        <v>419</v>
       </c>
       <c r="G25" t="n">
-        <v>0.1300390117035111</v>
+        <v>88.39662447257383</v>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>DBScheduler.go:154</t>
+          <t>['KeepAliveOnce key: 8043077/ENGINE/DB/6753cbc637df5e01aa7f17ca, leaseID: 7587883016994715583']</t>
         </is>
       </c>
       <c r="I25" t="inlineStr">
@@ -1819,29 +1819,29 @@
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>CALLER</t>
+          <t>MESSAGE</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>EQUAL</t>
+          <t>K_MEANS-30</t>
         </is>
       </c>
       <c r="D26" t="n">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="E26" t="n">
         <v>10</v>
       </c>
       <c r="F26" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="G26" t="n">
-        <v>0.1300390117035111</v>
+        <v>7.172995780590717</v>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>DBScheduler.go:224</t>
+          <t>['UpdateDoc Succeed: MatchedCount = 1, ModifiedCount = 1, UpsertedCount = 0']</t>
         </is>
       </c>
       <c r="I26" t="inlineStr">
@@ -1882,20 +1882,20 @@
         </is>
       </c>
       <c r="D27" t="n">
+        <v>3</v>
+      </c>
+      <c r="E27" t="n">
+        <v>10</v>
+      </c>
+      <c r="F27" t="n">
         <v>1</v>
       </c>
-      <c r="E27" t="n">
-        <v>10</v>
-      </c>
-      <c r="F27" t="n">
-        <v>693</v>
-      </c>
       <c r="G27" t="n">
-        <v>90.11703511053317</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H27" t="inlineStr">
         <is>
-          <t>['KeepAliveOnce key: 8043077/ENGINE/DB/674d208ddb9f7fa171078d40, leaseID: 7587883016994627332']</t>
+          <t>['set log level to DEBUG']</t>
         </is>
       </c>
       <c r="I27" t="inlineStr">
@@ -1936,20 +1936,20 @@
         </is>
       </c>
       <c r="D28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E28" t="n">
         <v>10</v>
       </c>
       <c r="F28" t="n">
-        <v>55</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>7.152145643693109</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H28" t="inlineStr">
         <is>
-          <t>['UpdateDoc Succeed: MatchedCount = 1, ModifiedCount = 1, UpsertedCount = 0']</t>
+          <t>['DBManager start version 000']</t>
         </is>
       </c>
       <c r="I28" t="inlineStr">
@@ -1990,7 +1990,7 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E29" t="n">
         <v>10</v>
@@ -1999,11 +1999,11 @@
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1300390117035111</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H29" t="inlineStr">
         <is>
-          <t>['set log level to DEBUG']</t>
+          <t>['mongo url list: [mongodb://10.8.45.77:27017/gamedb_test_70 mongodb://10.8.45.77:27017/commondb]']</t>
         </is>
       </c>
       <c r="I29" t="inlineStr">
@@ -2044,7 +2044,7 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="E30" t="n">
         <v>10</v>
@@ -2053,11 +2053,11 @@
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1300390117035111</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H30" t="inlineStr">
         <is>
-          <t>['DBManager start version 000']</t>
+          <t>['single redis url: 10.8.45.77:7000']</t>
         </is>
       </c>
       <c r="I30" t="inlineStr">
@@ -2098,7 +2098,7 @@
         </is>
       </c>
       <c r="D31" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="E31" t="n">
         <v>10</v>
@@ -2107,11 +2107,11 @@
         <v>1</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1300390117035111</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H31" t="inlineStr">
         <is>
-          <t>['mongo url list: [mongodb://10.8.45.77:27017/gamedb_test_70 mongodb://10.8.45.77:27017/commondb]']</t>
+          <t>['Init mongodb gamedb_test_70 successful']</t>
         </is>
       </c>
       <c r="I31" t="inlineStr">
@@ -2152,7 +2152,7 @@
         </is>
       </c>
       <c r="D32" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E32" t="n">
         <v>10</v>
@@ -2161,11 +2161,11 @@
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1300390117035111</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H32" t="inlineStr">
         <is>
-          <t>['single redis url: 10.8.45.77:7000']</t>
+          <t>['Init mongodb commondb successful']</t>
         </is>
       </c>
       <c r="I32" t="inlineStr">
@@ -2206,7 +2206,7 @@
         </is>
       </c>
       <c r="D33" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E33" t="n">
         <v>10</v>
@@ -2215,11 +2215,11 @@
         <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1300390117035111</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H33" t="inlineStr">
         <is>
-          <t>['Init mongodb gamedb_test_70 successful']</t>
+          <t>['redisClient: PING']</t>
         </is>
       </c>
       <c r="I33" t="inlineStr">
@@ -2260,7 +2260,7 @@
         </is>
       </c>
       <c r="D34" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E34" t="n">
         <v>10</v>
@@ -2269,11 +2269,11 @@
         <v>1</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1300390117035111</v>
+        <v>0.2109704641350211</v>
       </c>
       <c r="H34" t="inlineStr">
         <is>
-          <t>['Init mongodb commondb successful']</t>
+          <t>['redisClient: PONG']</t>
         </is>
       </c>
       <c r="I34" t="inlineStr">
@@ -2292,114 +2292,6 @@
         </is>
       </c>
       <c r="L34" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="35">
-      <c r="A35" t="inlineStr">
-        <is>
-          <t>dbmanager</t>
-        </is>
-      </c>
-      <c r="B35" t="inlineStr">
-        <is>
-          <t>MESSAGE</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr">
-        <is>
-          <t>K_MEANS-30</t>
-        </is>
-      </c>
-      <c r="D35" t="n">
-        <v>9</v>
-      </c>
-      <c r="E35" t="n">
-        <v>10</v>
-      </c>
-      <c r="F35" t="n">
-        <v>1</v>
-      </c>
-      <c r="G35" t="n">
-        <v>0.1300390117035111</v>
-      </c>
-      <c r="H35" t="inlineStr">
-        <is>
-          <t>['redisClient: PING']</t>
-        </is>
-      </c>
-      <c r="I35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-    </row>
-    <row customHeight="1" ht="15" r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>dbmanager</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>MESSAGE</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>K_MEANS-30</t>
-        </is>
-      </c>
-      <c r="D36" t="n">
-        <v>10</v>
-      </c>
-      <c r="E36" t="n">
-        <v>10</v>
-      </c>
-      <c r="F36" t="n">
-        <v>1</v>
-      </c>
-      <c r="G36" t="n">
-        <v>0.1300390117035111</v>
-      </c>
-      <c r="H36" t="inlineStr">
-        <is>
-          <t>['redisClient: PONG']</t>
-        </is>
-      </c>
-      <c r="I36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="J36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="K36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="L36" t="inlineStr">
         <is>
           <t>N/A</t>
         </is>
